--- a/DragPrediction/NL2VP DragX/0.5T/n/5/test.xlsx
+++ b/DragPrediction/NL2VP DragX/0.5T/n/5/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windtunnel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windtunnel\Documents\GitHub\NU-Python\DragPrediction\NL2VP DragX\0.5T\n\5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -348,15 +348,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -369,8 +372,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1">
+        <v>2.8965517239999999E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>53.425468000000002</v>
       </c>
@@ -383,8 +389,16 @@
       <c r="D2" s="1">
         <v>0.34498400000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <f>A2*$E$1</f>
+        <v>1.5474963144090683</v>
+      </c>
+      <c r="F2">
+        <f>SUM(E2:E41)</f>
+        <v>11.755160904267816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>48.421562000000002</v>
       </c>
@@ -397,8 +411,12 @@
       <c r="D3" s="1">
         <v>0.34694799999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <f t="shared" ref="E3:E41" si="0">A3*$E$1</f>
+        <v>1.4025555888987289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>50.688757000000003</v>
       </c>
@@ -411,8 +429,12 @@
       <c r="D4" s="1">
         <v>0.34650900000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.4682260647576706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>10.224531000000001</v>
       </c>
@@ -425,8 +447,12 @@
       <c r="D5" s="1">
         <v>0.57330400000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.29615882895141443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>14.674443999999999</v>
       </c>
@@ -439,8 +465,12 @@
       <c r="D6" s="1">
         <v>0.56760900000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.4250528606694145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>47.293548000000001</v>
       </c>
@@ -453,8 +483,12 @@
       <c r="D7" s="1">
         <v>0.34737400000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.3698820799347675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>14.032399</v>
       </c>
@@ -467,8 +501,12 @@
       <c r="D8" s="1">
         <v>0.56720099999999996</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.40645569515305874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>22.90287</v>
       </c>
@@ -481,8 +519,12 @@
       <c r="D9" s="1">
         <v>0.56720099999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.66339347583047881</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>-1.2029110000000001</v>
       </c>
@@ -495,8 +537,12 @@
       <c r="D10" s="1">
         <v>0.78991400000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>-3.4842939308685643E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>-12.324668000000001</v>
       </c>
@@ -509,8 +555,12 @@
       <c r="D11" s="1">
         <v>0.79212700000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>-0.35699038343127631</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>-1.560603</v>
       </c>
@@ -523,8 +573,12 @@
       <c r="D12" s="1">
         <v>0.78971199999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>-4.5203673101295715E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>-0.38211600000000001</v>
       </c>
@@ -537,8 +591,12 @@
       <c r="D13" s="1">
         <v>0.79022199999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>-1.106818758567984E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>1.875092</v>
       </c>
@@ -551,8 +609,12 @@
       <c r="D14" s="1">
         <v>1.0165770000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>5.4313009652586078E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>1.414909</v>
       </c>
@@ -565,8 +627,12 @@
       <c r="D15" s="1">
         <v>1.016912</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>4.0983571032531155E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>3.5224999999999999E-2</v>
       </c>
@@ -579,8 +645,12 @@
       <c r="D16" s="1">
         <v>1.0169699999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.020310344779E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>-2.760977</v>
       </c>
@@ -593,8 +663,12 @@
       <c r="D17" s="1">
         <v>1.011741</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>-7.9973126892743482E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>-10.633125</v>
       </c>
@@ -607,8 +681,12 @@
       <c r="D18" s="1">
         <v>1.234764</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>-0.30799396550257496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>-10.528022</v>
       </c>
@@ -621,8 +699,12 @@
       <c r="D19" s="1">
         <v>1.23522</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>-0.30494960274409927</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>-10.024872999999999</v>
       </c>
@@ -635,8 +717,12 @@
       <c r="D20" s="1">
         <v>1.2336020000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>-0.2903756317103105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>-7.5415510000000001</v>
       </c>
@@ -649,8 +735,12 @@
       <c r="D21" s="1">
         <v>1.2350730000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>-0.21844492550683922</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>1.778662</v>
       </c>
@@ -663,8 +753,12 @@
       <c r="D22" s="1">
         <v>1.2339180000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>5.1519864825132877E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>4.6449999999999996</v>
       </c>
@@ -677,8 +771,12 @@
       <c r="D23" s="1">
         <v>1.2344980000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0.13454482757979999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>4.4965000000000002</v>
       </c>
@@ -691,8 +789,12 @@
       <c r="D24" s="1">
         <v>1.0203660000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.13024344826966</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>6.2857919999999998</v>
       </c>
@@ -705,8 +807,12 @@
       <c r="D25" s="1">
         <v>1.2342230000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.18207121654305405</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>9.2407570000000003</v>
       </c>
@@ -719,8 +825,12 @@
       <c r="D26" s="1">
         <v>1.0114030000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0.26766330619415069</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>6.3613020000000002</v>
       </c>
@@ -733,8 +843,12 @@
       <c r="D27" s="1">
         <v>1.234178</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0.18425840274984648</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>9.991123</v>
       </c>
@@ -747,8 +861,12 @@
       <c r="D28" s="1">
         <v>1.015414</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0.28939804550346049</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>10.112631</v>
       </c>
@@ -761,8 +879,12 @@
       <c r="D29" s="1">
         <v>1.018626</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0.29291758757225844</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>8.7211890000000007</v>
       </c>
@@ -775,8 +897,12 @@
       <c r="D30" s="1">
         <v>0.79183400000000004</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0.25261375033279837</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>9.1962960000000002</v>
       </c>
@@ -789,8 +915,12 @@
       <c r="D31" s="1">
         <v>0.79216699999999995</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0.26637547033214304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>9.7924380000000006</v>
       </c>
@@ -803,8 +933,12 @@
       <c r="D32" s="1">
         <v>0.79248200000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>0.2836430317106311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>9.8403489999999998</v>
       </c>
@@ -817,8 +951,12 @@
       <c r="D33" s="1">
         <v>0.78994299999999995</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0.28503079860711672</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>12.638166</v>
       </c>
@@ -831,8 +969,12 @@
       <c r="D34" s="1">
         <v>0.57308800000000004</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0.3660710151549818</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>14.159038000000001</v>
       </c>
@@ -845,8 +987,12 @@
       <c r="D35" s="1">
         <v>0.57005399999999995</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>0.41012385929081513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>12.363459000000001</v>
       </c>
@@ -859,8 +1005,12 @@
       <c r="D36" s="1">
         <v>0.56777900000000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>0.35811398481053314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>14.209548</v>
       </c>
@@ -873,8 +1023,12 @@
       <c r="D37" s="1">
         <v>0.35227399999999998</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>0.41158690756660748</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>11.325488999999999</v>
       </c>
@@ -887,8 +1041,12 @@
       <c r="D38" s="1">
         <v>0.56933299999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0.32804864688093033</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>14.071911</v>
       </c>
@@ -901,8 +1059,12 @@
       <c r="D39" s="1">
         <v>0.34597499999999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>0.40760018067024562</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>14.033912000000001</v>
       </c>
@@ -915,8 +1077,12 @@
       <c r="D40" s="1">
         <v>0.34736800000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>0.40649951998064288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>14.539415</v>
       </c>
@@ -928,6 +1094,10 @@
       </c>
       <c r="D41" s="1">
         <v>0.35613299999999998</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>0.42114167584201456</v>
       </c>
     </row>
   </sheetData>
@@ -935,5 +1105,6 @@
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>